--- a/medicine/Œil et vue/Syndrome_de_Parinaud/Syndrome_de_Parinaud.xlsx
+++ b/medicine/Œil et vue/Syndrome_de_Parinaud/Syndrome_de_Parinaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Parinaud est un syndrome neurologique affectant la motricité oculaire. Il fut décrit en 1883 par l'ophtalmologiste français Henri Parinaud[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Parinaud est un syndrome neurologique affectant la motricité oculaire. Il fut décrit en 1883 par l'ophtalmologiste français Henri Parinaud. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se manifeste par une paralysie de la verticalité du regard, principalement vers le haut. Il s'agit d'une paralysie supra-nucléaire[2]. Les autres signes cliniques parfois rencontrés dans le syndrome de Parinaud sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se manifeste par une paralysie de la verticalité du regard, principalement vers le haut. Il s'agit d'une paralysie supra-nucléaire. Les autres signes cliniques parfois rencontrés dans le syndrome de Parinaud sont :
 pseudo-signe d'Argyll Robertson ;
 nystagmus ;
 rétraction des paupières (signe de Collier) ;
@@ -549,7 +563,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La lésion responsable du syndrome est localisée à la calotte pédonculaire, aux tubercules quadrijumeaux ou à la région sous-thalamique.
 Les principales causes du syndrome de Parinaud sont :
@@ -585,7 +601,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement du syndrome de Parinaud est celui de sa cause.
 </t>
